--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Amelx-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Amelx-Cd63.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd63</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.388571333333333</v>
+        <v>0.052706</v>
       </c>
       <c r="H2">
-        <v>4.165714</v>
+        <v>0.158118</v>
       </c>
       <c r="I2">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="J2">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.88086666666666</v>
+        <v>2.307850666666667</v>
       </c>
       <c r="N2">
-        <v>176.6426</v>
+        <v>6.923552000000001</v>
       </c>
       <c r="O2">
-        <v>0.2818386429293819</v>
+        <v>0.0151489512424924</v>
       </c>
       <c r="P2">
-        <v>0.2818386429293819</v>
+        <v>0.0151489512424924</v>
       </c>
       <c r="Q2">
-        <v>81.76028353515555</v>
+        <v>0.1216375772373334</v>
       </c>
       <c r="R2">
-        <v>735.8425518164</v>
+        <v>1.094738195136</v>
       </c>
       <c r="S2">
-        <v>0.09930659582408284</v>
+        <v>0.0001999319131389127</v>
       </c>
       <c r="T2">
-        <v>0.09930659582408286</v>
+        <v>0.0001999319131389127</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.388571333333333</v>
+        <v>0.052706</v>
       </c>
       <c r="H3">
-        <v>4.165714</v>
+        <v>0.158118</v>
       </c>
       <c r="I3">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="J3">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>332.225341</v>
       </c>
       <c r="O3">
-        <v>0.5300756400448766</v>
+        <v>0.726919577166375</v>
       </c>
       <c r="P3">
-        <v>0.5300756400448766</v>
+        <v>0.726919577166375</v>
       </c>
       <c r="Q3">
-        <v>153.7728615731638</v>
+        <v>5.836756274248668</v>
       </c>
       <c r="R3">
-        <v>1383.955754158474</v>
+        <v>52.530806468238</v>
       </c>
       <c r="S3">
-        <v>0.1867735623298406</v>
+        <v>0.009593695262107894</v>
       </c>
       <c r="T3">
-        <v>0.1867735623298406</v>
+        <v>0.009593695262107894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.388571333333333</v>
+        <v>0.052706</v>
       </c>
       <c r="H4">
-        <v>4.165714</v>
+        <v>0.158118</v>
       </c>
       <c r="I4">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="J4">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.29429233333334</v>
+        <v>39.29429233333333</v>
       </c>
       <c r="N4">
         <v>117.882877</v>
       </c>
       <c r="O4">
-        <v>0.1880857170257415</v>
+        <v>0.2579314715911324</v>
       </c>
       <c r="P4">
-        <v>0.1880857170257415</v>
+        <v>0.2579314715911324</v>
       </c>
       <c r="Q4">
-        <v>54.56292789768645</v>
+        <v>2.071044971720667</v>
       </c>
       <c r="R4">
-        <v>491.066351079178</v>
+        <v>18.639404745486</v>
       </c>
       <c r="S4">
-        <v>0.06627250290031438</v>
+        <v>0.003404112386955297</v>
       </c>
       <c r="T4">
-        <v>0.06627250290031439</v>
+        <v>0.003404112386955297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.552285333333333</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H5">
-        <v>7.656855999999999</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I5">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="J5">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>58.88086666666666</v>
+        <v>2.307850666666667</v>
       </c>
       <c r="N5">
-        <v>176.6426</v>
+        <v>6.923552000000001</v>
       </c>
       <c r="O5">
-        <v>0.2818386429293819</v>
+        <v>0.0151489512424924</v>
       </c>
       <c r="P5">
-        <v>0.2818386429293819</v>
+        <v>0.0151489512424924</v>
       </c>
       <c r="Q5">
-        <v>150.2807724072889</v>
+        <v>3.204615277347556</v>
       </c>
       <c r="R5">
-        <v>1352.5269516656</v>
+        <v>28.841537496128</v>
       </c>
       <c r="S5">
-        <v>0.182532047105299</v>
+        <v>0.005267326740848937</v>
       </c>
       <c r="T5">
-        <v>0.182532047105299</v>
+        <v>0.005267326740848937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.552285333333333</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H6">
-        <v>7.656855999999999</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I6">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="J6">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>332.225341</v>
       </c>
       <c r="O6">
-        <v>0.5300756400448766</v>
+        <v>0.726919577166375</v>
       </c>
       <c r="P6">
-        <v>0.5300756400448766</v>
+        <v>0.726919577166375</v>
       </c>
       <c r="Q6">
-        <v>282.6446217319884</v>
+        <v>153.7728615731638</v>
       </c>
       <c r="R6">
-        <v>2543.801595587895</v>
+        <v>1383.955754158474</v>
       </c>
       <c r="S6">
-        <v>0.3433020777150361</v>
+        <v>0.2527516833320464</v>
       </c>
       <c r="T6">
-        <v>0.3433020777150361</v>
+        <v>0.2527516833320464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,14 +829,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.552285333333333</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H7">
-        <v>7.656855999999999</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I7">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="J7">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.29429233333334</v>
+        <v>39.29429233333333</v>
       </c>
       <c r="N7">
         <v>117.882877</v>
       </c>
       <c r="O7">
-        <v>0.1880857170257415</v>
+        <v>0.2579314715911324</v>
       </c>
       <c r="P7">
-        <v>0.1880857170257415</v>
+        <v>0.2579314715911324</v>
       </c>
       <c r="Q7">
+        <v>54.56292789768644</v>
+      </c>
+      <c r="R7">
+        <v>491.0663510791779</v>
+      </c>
+      <c r="S7">
+        <v>0.08968339232669965</v>
+      </c>
+      <c r="T7">
+        <v>0.08968339232669965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.552285333333333</v>
+      </c>
+      <c r="H8">
+        <v>7.656856</v>
+      </c>
+      <c r="I8">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="J8">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.307850666666667</v>
+      </c>
+      <c r="N8">
+        <v>6.923552000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.0151489512424924</v>
+      </c>
+      <c r="P8">
+        <v>0.0151489512424924</v>
+      </c>
+      <c r="Q8">
+        <v>5.890293408056889</v>
+      </c>
+      <c r="R8">
+        <v>53.01264067251201</v>
+      </c>
+      <c r="S8">
+        <v>0.009681692588504548</v>
+      </c>
+      <c r="T8">
+        <v>0.009681692588504548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.552285333333333</v>
+      </c>
+      <c r="H9">
+        <v>7.656856</v>
+      </c>
+      <c r="I9">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="J9">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>110.7417803333333</v>
+      </c>
+      <c r="N9">
+        <v>332.225341</v>
+      </c>
+      <c r="O9">
+        <v>0.726919577166375</v>
+      </c>
+      <c r="P9">
+        <v>0.726919577166375</v>
+      </c>
+      <c r="Q9">
+        <v>282.6446217319885</v>
+      </c>
+      <c r="R9">
+        <v>2543.801595587896</v>
+      </c>
+      <c r="S9">
+        <v>0.4645741985722207</v>
+      </c>
+      <c r="T9">
+        <v>0.4645741985722207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.552285333333333</v>
+      </c>
+      <c r="H10">
+        <v>7.656856</v>
+      </c>
+      <c r="I10">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="J10">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>39.29429233333333</v>
+      </c>
+      <c r="N10">
+        <v>117.882877</v>
+      </c>
+      <c r="O10">
+        <v>0.2579314715911324</v>
+      </c>
+      <c r="P10">
+        <v>0.2579314715911324</v>
+      </c>
+      <c r="Q10">
         <v>100.2902460060791</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>902.612214054712</v>
       </c>
-      <c r="S7">
-        <v>0.1218132141254271</v>
-      </c>
-      <c r="T7">
-        <v>0.1218132141254271</v>
+      <c r="S10">
+        <v>0.1648439668774775</v>
+      </c>
+      <c r="T10">
+        <v>0.1648439668774775</v>
       </c>
     </row>
   </sheetData>
